--- a/data2.xlsx
+++ b/data2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/FINM/finm-portfolio-2022/build_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281720C6-D603-F340-8329-A98614410038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10300" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-10305" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -127,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +182,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,23 +481,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -519,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -527,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -535,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -543,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -551,7 +545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -559,7 +553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -567,7 +561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -575,7 +569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -583,7 +577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -591,7 +585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -599,7 +593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -607,7 +601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -615,7 +609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -623,7 +617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -637,17 +631,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -664,7 +663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>40786</v>
       </c>
@@ -684,7 +683,7 @@
         <v>-6.4886438612895558E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>40816</v>
       </c>
@@ -704,7 +703,7 @@
         <v>-2.2143543944850849E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>40847</v>
       </c>
@@ -724,7 +723,7 @@
         <v>2.5240720139661391E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>40877</v>
       </c>
@@ -744,7 +743,7 @@
         <v>-7.9653102610265369E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>40908</v>
       </c>
@@ -764,7 +763,7 @@
         <v>1.822971074160185E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>40939</v>
       </c>
@@ -784,7 +783,7 @@
         <v>1.6986162452157449E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>40968</v>
       </c>
@@ -804,7 +803,7 @@
         <v>1.307165890650008E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>40999</v>
       </c>
@@ -824,7 +823,7 @@
         <v>-6.092309402001006E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41029</v>
       </c>
@@ -844,7 +843,7 @@
         <v>-2.8871265304167841E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41060</v>
       </c>
@@ -864,7 +863,7 @@
         <v>-1.265523690523385E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41090</v>
       </c>
@@ -884,7 +883,7 @@
         <v>7.3254130178186383E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41121</v>
       </c>
@@ -904,7 +903,7 @@
         <v>1.236183535001723E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41152</v>
       </c>
@@ -924,7 +923,7 @@
         <v>6.8253684147723259E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41182</v>
       </c>
@@ -944,7 +943,7 @@
         <v>4.6379147556008249E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41213</v>
       </c>
@@ -964,7 +963,7 @@
         <v>1.419555258449501E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41243</v>
       </c>
@@ -984,7 +983,7 @@
         <v>1.77487375621399E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41274</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>-4.6135513762258773E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41305</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>5.6548568368242069E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41333</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>-2.5844144147679771E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41364</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>7.4732385208629024E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41394</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>9.622150774242888E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41425</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>7.0467550270714163E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41455</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>-2.7759286123820059E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41486</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>1.9876277887937551E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41517</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>-1.027611230766245E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41547</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>2.2914322235597199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41578</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>1.470018897504977E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41608</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>6.5541939285875817E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41639</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>5.3893586438031882E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41670</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>-7.5964865782960356E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41698</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>2.087251553495939E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41729</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>-4.4325555174815623E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>41759</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>2.398241289720771E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41790</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>1.4336560259335499E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41820</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>9.4274721634775016E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41851</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>-1.300668183571985E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41882</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>1.8921347986204481E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41912</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>-1.624649056441407E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41943</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>3.7068085726783551E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41973</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>1.208888178751311E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42004</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>-1.1879902119078861E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42035</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>-1.326821474609197E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42063</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>3.4139125122819143E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>42094</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>-1.6689322392160479E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42124</v>
       </c>
@@ -1564,7 +1563,7 @@
         <v>2.0032151246307528E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42155</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>-3.3083017028856521E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42185</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>-1.367172209609346E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42216</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>-3.3913470141710977E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>42247</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>-1.690835204019037E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>42277</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>-9.2879143309214651E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>42308</v>
       </c>
@@ -1684,7 +1683,7 @@
         <v>8.6820544935097832E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>42338</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>-5.165129862973461E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42369</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>-1.04688261620951E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>42400</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>-1.405386443954337E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42429</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>3.561655242370287E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>42460</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>2.3440092930633979E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42490</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>8.3247653477496186E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>42521</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>-3.4391012287202649E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42551</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>6.9056062667551821E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>42582</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>7.8889860139859103E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>42613</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>-2.7247168679487288E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>42643</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>-3.4061426521525551E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>42674</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>-1.365096165696433E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>42704</v>
       </c>
@@ -1944,7 +1943,7 @@
         <v>-1.349444346445583E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>42735</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>5.6288183579198403E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>42766</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>2.0929724283296198E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>42794</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>1.2575965931774791E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>42825</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>-4.3808731080119401E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>42855</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>2.4059348827700782E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>42886</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>4.4579607743158167E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>42916</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>4.0973352816826569E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>42947</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>9.1795795882549935E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>42978</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>5.0561616826676481E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43008</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>1.6733481917159401E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43039</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>8.3669813466789034E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43069</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>5.9746631981896234E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43100</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>4.2888227812174504E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43131</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>2.0040681466905411E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43159</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>-1.3527796115076931E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43190</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>-4.8958759526499529E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43220</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>-2.6237482316704419E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43251</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>6.5783727697990013E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43281</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>-6.8650997487192944E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43312</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>8.887071634759991E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43343</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>2.6083432344148338E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43373</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>-6.4952563898812432E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43404</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>-2.767463889868416E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43434</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>2.6808984209720781E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43465</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>-1.738633986163263E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43496</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>2.7701190905810021E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43524</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>8.7577604854343072E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43555</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>4.3443450412503637E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43585</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>6.6512314656277383E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43616</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>-1.3049301569703631E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43646</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>1.824194915697697E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43677</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>-1.315627184146684E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43708</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>-2.9606301373622519E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43738</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>4.2906936334639054E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43769</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>9.531444860146232E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43799</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>4.8870215639826853E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43830</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>1.706867320954553E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43861</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>-5.8442248432686314E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43890</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>-1.469645147498932E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43921</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>-5.6347290773987042E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43951</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>3.0908503071451539E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43982</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>1.9761372110365549E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44012</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>1.303285550752609E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44043</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>1.781021996296284E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44074</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>1.2636748978421821E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44104</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>-8.3193695344818686E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44135</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>-4.51800270618119E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44165</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>3.3387371080191297E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44196</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>2.149740786366916E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44227</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>1.253089540942165E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44255</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>1.8757135866904751E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44286</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>-7.1819917973763303E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44316</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>5.975731278144325E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44347</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>5.9402340358170047E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44377</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>2.4835933263944732E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44408</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>-3.4068690686751561E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44439</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>1.2413952284260339E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44469</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>-1.3358047382439399E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44500</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>1.070671924778277E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44530</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>-1.495432791432905E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44561</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>8.1789668306264662E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44592</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>-2.0761245674740469E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44620</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>-6.8133633151300499E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44651</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>-2.519576038476079E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44681</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>-3.3398184176394292E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44712</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>-4.0254948004024849E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44742</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>-3.3681374200067338E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44773</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>1.882188915998606E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44804</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>-1.163188504960655E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44834</v>
       </c>
@@ -3350,17 +3349,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>40786</v>
       </c>
@@ -3403,7 +3408,7 @@
         <v>-8.8914729365058398E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>40816</v>
       </c>
@@ -3426,7 +3431,7 @@
         <v>-0.1115041367062987</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>40847</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>0.15100961459982701</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>40877</v>
       </c>
@@ -3472,7 +3477,7 @@
         <v>-3.7818621889418309E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>40908</v>
       </c>
@@ -3495,7 +3500,7 @@
         <v>5.1438766988081142E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>40939</v>
       </c>
@@ -3518,7 +3523,7 @@
         <v>7.1456897365687722E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>40968</v>
       </c>
@@ -3541,7 +3546,7 @@
         <v>2.5690735942943469E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>40999</v>
       </c>
@@ -3564,7 +3569,7 @@
         <v>2.484964774614817E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41029</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>-1.6181044383650312E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41060</v>
       </c>
@@ -3610,7 +3615,7 @@
         <v>-6.5791547903592207E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41090</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>5.0523937872354763E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41121</v>
       </c>
@@ -3656,7 +3661,7 @@
         <v>-1.52089163900313E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41152</v>
       </c>
@@ -3679,7 +3684,7 @@
         <v>3.5354693093050622E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41182</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>3.260468469695943E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41213</v>
       </c>
@@ -3725,7 +3730,7 @@
         <v>-2.1692907162933931E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41243</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>5.512923900857114E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41274</v>
       </c>
@@ -3771,7 +3776,7 @@
         <v>3.6155907593341308E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41305</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>6.2409737008534583E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41333</v>
       </c>
@@ -3817,7 +3822,7 @@
         <v>1.004613734586512E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41364</v>
       </c>
@@ -3840,7 +3845,7 @@
         <v>4.6590766292191388E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41394</v>
       </c>
@@ -3863,7 +3868,7 @@
         <v>-3.4940013639812579E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41425</v>
       </c>
@@ -3886,7 +3891,7 @@
         <v>3.9319425601183733E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41455</v>
       </c>
@@ -3909,7 +3914,7 @@
         <v>-8.1801203136177003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41486</v>
       </c>
@@ -3932,7 +3937,7 @@
         <v>7.3290840807318958E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41517</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>-3.1594652726728227E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41547</v>
       </c>
@@ -3978,7 +3983,7 @@
         <v>6.4894389876902547E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41578</v>
       </c>
@@ -4001,7 +4006,7 @@
         <v>2.420059160287202E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41608</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>3.9563430892883833E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41639</v>
       </c>
@@ -4047,7 +4052,7 @@
         <v>2.0209183648166821E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41670</v>
       </c>
@@ -4070,7 +4075,7 @@
         <v>-2.7739213284333712E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41698</v>
       </c>
@@ -4093,7 +4098,7 @@
         <v>4.7788706142105182E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41729</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>-7.4839741601524512E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>41759</v>
       </c>
@@ -4139,7 +4144,7 @@
         <v>-3.7476069642508707E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41790</v>
       </c>
@@ -4162,7 +4167,7 @@
         <v>7.8579691555231701E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41820</v>
       </c>
@@ -4185,7 +4190,7 @@
         <v>5.272042089904927E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41851</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>-6.0541749797801907E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41882</v>
       </c>
@@ -4231,7 +4236,7 @@
         <v>4.8296362814536753E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41912</v>
       </c>
@@ -4254,7 +4259,7 @@
         <v>-5.9282041672482633E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41943</v>
       </c>
@@ -4277,7 +4282,7 @@
         <v>6.5934657846516087E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41973</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>1.115522350491505E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42004</v>
       </c>
@@ -4323,7 +4328,7 @@
         <v>2.8929358498903879E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42035</v>
       </c>
@@ -4346,7 +4351,7 @@
         <v>-3.2769890649788747E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42063</v>
       </c>
@@ -4369,7 +4374,7 @@
         <v>5.946345281910248E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>42094</v>
       </c>
@@ -4392,7 +4397,7 @@
         <v>1.7701848767428089E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42124</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>-2.5648922441720009E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42155</v>
       </c>
@@ -4438,7 +4443,7 @@
         <v>2.2362602077763642E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42185</v>
       </c>
@@ -4461,7 +4466,7 @@
         <v>7.8298949094099957E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42216</v>
       </c>
@@ -4484,7 +4489,7 @@
         <v>-1.103741050061313E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>42247</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>-6.3109877103841305E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>42277</v>
       </c>
@@ -4530,7 +4535,7 @@
         <v>-4.9362208022563407E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>42308</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>5.6227128653644431E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>42338</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>3.2599265456998872E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42369</v>
       </c>
@@ -4599,7 +4604,7 @@
         <v>-5.0305477053101177E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>42400</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v>-8.5774557265725804E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42429</v>
       </c>
@@ -4645,7 +4650,7 @@
         <v>-2.2342887002015921E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>42460</v>
       </c>
@@ -4668,7 +4673,7 @@
         <v>8.0131170667400387E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42490</v>
       </c>
@@ -4691,7 +4696,7 @@
         <v>1.6723019820968021E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>42521</v>
       </c>
@@ -4714,7 +4719,7 @@
         <v>2.2403623116909799E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42551</v>
       </c>
@@ -4737,7 +4742,7 @@
         <v>-1.7408301299859369E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>42582</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>5.8744321208800798E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>42613</v>
       </c>
@@ -4783,7 +4788,7 @@
         <v>1.7841326417979531E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>42643</v>
       </c>
@@ -4806,7 +4811,7 @@
         <v>1.074001712291173E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>42674</v>
       </c>
@@ -4829,7 +4834,7 @@
         <v>-4.5970830263688311E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>42704</v>
       </c>
@@ -4852,7 +4857,7 @@
         <v>0.11063333397077441</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>42735</v>
       </c>
@@ -4875,7 +4880,7 @@
         <v>2.8843946370708421E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>42766</v>
       </c>
@@ -4898,7 +4903,7 @@
         <v>2.817954257653188E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>42794</v>
       </c>
@@ -4921,7 +4926,7 @@
         <v>1.9299922835275041E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>42825</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>2.5884255278030288E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>42855</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>1.149290900375277E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>42886</v>
       </c>
@@ -4990,7 +4995,7 @@
         <v>-1.9703940017415159E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>42916</v>
       </c>
@@ -5013,7 +5018,7 @@
         <v>3.3744713632147372E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>42947</v>
       </c>
@@ -5036,7 +5041,7 @@
         <v>8.5250344468881245E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>42978</v>
       </c>
@@ -5059,7 +5064,7 @@
         <v>-1.2578801292940761E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43008</v>
       </c>
@@ -5082,7 +5087,7 @@
         <v>6.3037761263779135E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43039</v>
       </c>
@@ -5105,7 +5110,7 @@
         <v>7.2887260711849136E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43069</v>
       </c>
@@ -5128,7 +5133,7 @@
         <v>2.941174373189126E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43100</v>
       </c>
@@ -5151,7 +5156,7 @@
         <v>-3.9825678661014052E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43131</v>
       </c>
@@ -5174,7 +5179,7 @@
         <v>2.5580195188177331E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43159</v>
       </c>
@@ -5197,7 +5202,7 @@
         <v>-3.8436941998723717E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43190</v>
       </c>
@@ -5220,7 +5225,7 @@
         <v>1.2177928799987031E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43220</v>
       </c>
@@ -5243,7 +5248,7 @@
         <v>9.8135399537333523E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43251</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>6.1635583794033437E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43281</v>
       </c>
@@ -5289,7 +5294,7 @@
         <v>6.1440208401444263E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43312</v>
       </c>
@@ -5312,7 +5317,7 @@
         <v>1.6491367693740822E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43343</v>
       </c>
@@ -5335,7 +5340,7 @@
         <v>4.3105688979893308E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43373</v>
       </c>
@@ -5358,7 +5363,7 @@
         <v>-2.3247511240541471E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43404</v>
       </c>
@@ -5381,7 +5386,7 @@
         <v>-0.1098787317040311</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43434</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>1.7263440551286591E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43465</v>
       </c>
@@ -5427,7 +5432,7 @@
         <v>-0.1197191151327618</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43496</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>0.11321838450835831</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43524</v>
       </c>
@@ -5473,7 +5478,7 @@
         <v>5.1791669244136251E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43555</v>
       </c>
@@ -5496,7 +5501,7 @@
         <v>-2.0932831282222009E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43585</v>
       </c>
@@ -5519,7 +5524,7 @@
         <v>3.3966555649681318E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43616</v>
       </c>
@@ -5542,7 +5547,7 @@
         <v>-7.8526440879381987E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43646</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>6.9848884762093055E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43677</v>
       </c>
@@ -5588,7 +5593,7 @@
         <v>6.8166841676666756E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43708</v>
       </c>
@@ -5611,7 +5616,7 @@
         <v>-4.9310009731101001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43738</v>
       </c>
@@ -5634,7 +5639,7 @@
         <v>2.0368811713203479E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43769</v>
       </c>
@@ -5657,7 +5662,7 @@
         <v>2.7157732483272801E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43799</v>
       </c>
@@ -5680,7 +5685,7 @@
         <v>4.0655855456528167E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43830</v>
       </c>
@@ -5703,7 +5708,7 @@
         <v>2.7867441221977259E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43861</v>
       </c>
@@ -5726,7 +5731,7 @@
         <v>-3.102550676845817E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43890</v>
       </c>
@@ -5749,7 +5754,7 @@
         <v>-8.8457438757732709E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43921</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>-0.21477112305359569</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43951</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>0.13847567252388121</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43982</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>6.592008245147718E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44012</v>
       </c>
@@ -5841,7 +5846,7 @@
         <v>3.4298434043954051E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44043</v>
       </c>
@@ -5864,7 +5869,7 @@
         <v>2.919372079068672E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44074</v>
       </c>
@@ -5887,7 +5892,7 @@
         <v>5.4764138753464531E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44104</v>
       </c>
@@ -5910,7 +5915,7 @@
         <v>-3.2610612251367299E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44135</v>
       </c>
@@ -5933,7 +5938,7 @@
         <v>2.2030909628351299E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44165</v>
       </c>
@@ -5956,7 +5961,7 @@
         <v>0.18244192360948319</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44196</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>8.6466910811456632E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44227</v>
       </c>
@@ -6002,7 +6007,7 @@
         <v>4.8454503387354242E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44255</v>
       </c>
@@ -6025,7 +6030,7 @@
         <v>6.2025544947642557E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44286</v>
       </c>
@@ -6048,7 +6053,7 @@
         <v>1.395031751961162E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44316</v>
       </c>
@@ -6071,7 +6076,7 @@
         <v>1.7878162134879579E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44347</v>
       </c>
@@ -6094,7 +6099,7 @@
         <v>2.7123039517749081E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44377</v>
       </c>
@@ -6117,7 +6122,7 @@
         <v>1.869112071373236E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44408</v>
       </c>
@@ -6140,7 +6145,7 @@
         <v>-3.6273352119263857E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44439</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>2.2031203824943502E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44469</v>
       </c>
@@ -6186,7 +6191,7 @@
         <v>-2.8803930641764789E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44500</v>
       </c>
@@ -6209,7 +6214,7 @@
         <v>4.2514119977441478E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44530</v>
       </c>
@@ -6232,7 +6237,7 @@
         <v>-4.3323544408143122E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44561</v>
       </c>
@@ -6255,7 +6260,7 @@
         <v>2.2712374302453989E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44592</v>
       </c>
@@ -6278,7 +6283,7 @@
         <v>-9.5347409916555548E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44620</v>
       </c>
@@ -6301,7 +6306,7 @@
         <v>1.0335893973538511E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44651</v>
       </c>
@@ -6324,7 +6329,7 @@
         <v>1.1573615355465311E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44681</v>
       </c>
@@ -6347,7 +6352,7 @@
         <v>-9.8991438371297091E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44712</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>1.946445502795324E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44742</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>-8.3662911864392009E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44773</v>
       </c>
@@ -6416,7 +6421,7 @@
         <v>0.1056324486016809</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44804</v>
       </c>
@@ -6439,7 +6444,7 @@
         <v>-2.002621777934754E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44834</v>
       </c>
@@ -6468,17 +6473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -6495,7 +6505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>40786</v>
       </c>
@@ -6509,7 +6519,7 @@
         <v>-0.21087204236208859</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>40816</v>
       </c>
@@ -6523,7 +6533,7 @@
         <v>-0.20695659560010191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>40847</v>
       </c>
@@ -6537,7 +6547,7 @@
         <v>0.32603223906174689</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>40877</v>
       </c>
@@ -6551,7 +6561,7 @@
         <v>-3.3520455555106847E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>40908</v>
       </c>
@@ -6565,7 +6575,7 @@
         <v>2.2940955246333109E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>40939</v>
       </c>
@@ -6579,7 +6589,7 @@
         <v>0.13901143790849679</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>40968</v>
       </c>
@@ -6593,7 +6603,7 @@
         <v>0.13237456514722229</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>40999</v>
       </c>
@@ -6607,7 +6617,7 @@
         <v>9.2924558180781602E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41029</v>
       </c>
@@ -6621,7 +6631,7 @@
         <v>-2.3820563347629609E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41060</v>
       </c>
@@ -6635,7 +6645,7 @@
         <v>-0.1734845336341507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41090</v>
       </c>
@@ -6649,7 +6659,7 @@
         <v>0.11468285324330151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41121</v>
       </c>
@@ -6663,7 +6673,7 @@
         <v>3.5186080231996097E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41152</v>
       </c>
@@ -6677,7 +6687,7 @@
         <v>6.5241074485635098E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41182</v>
       </c>
@@ -6691,7 +6701,7 @@
         <v>7.5183356222423559E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41213</v>
       </c>
@@ -6705,7 +6715,7 @@
         <v>-5.9626046309381509E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41243</v>
       </c>
@@ -6719,7 +6729,7 @@
         <v>1.011502225304906E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41274</v>
       </c>
@@ -6733,7 +6743,7 @@
         <v>2.8152895399404802E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41305</v>
       </c>
@@ -6747,7 +6757,7 @@
         <v>0.15388468388245791</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41333</v>
       </c>
@@ -6761,7 +6771,7 @@
         <v>3.5595427579221413E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41364</v>
       </c>
@@ -6775,7 +6785,7 @@
         <v>0.110381444739416</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41394</v>
       </c>
@@ -6789,7 +6799,7 @@
         <v>5.4485969548257129E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41425</v>
       </c>
@@ -6803,7 +6813,7 @@
         <v>6.803898170246625E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41455</v>
       </c>
@@ -6817,7 +6827,7 @@
         <v>-5.2252285804733622E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41486</v>
       </c>
@@ -6831,7 +6841,7 @@
         <v>0.16410256410256399</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41517</v>
       </c>
@@ -6845,7 +6855,7 @@
         <v>-9.2139686397623488E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41547</v>
       </c>
@@ -6859,7 +6869,7 @@
         <v>9.5987952703205259E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41578</v>
       </c>
@@ -6873,7 +6883,7 @@
         <v>0.13760580821360111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41608</v>
       </c>
@@ -6887,7 +6897,7 @@
         <v>8.8737455825119715E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41639</v>
       </c>
@@ -6901,7 +6911,7 @@
         <v>7.5369107294491533E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41670</v>
       </c>
@@ -6915,7 +6925,7 @@
         <v>-0.1071487703299923</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41698</v>
       </c>
@@ -6929,7 +6939,7 @@
         <v>0.13652573319639411</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41729</v>
       </c>
@@ -6946,7 +6956,7 @@
         <v>2.1437088170693341E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>41759</v>
       </c>
@@ -6963,7 +6973,7 @@
         <v>1.657594337883839E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41790</v>
       </c>
@@ -6980,7 +6990,7 @@
         <v>6.6225885993327793E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41820</v>
       </c>
@@ -6997,7 +7007,7 @@
         <v>6.2248472412737683E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41851</v>
       </c>
@@ -7014,7 +7024,7 @@
         <v>-4.4396064118161882E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41882</v>
       </c>
@@ -7031,7 +7041,7 @@
         <v>0.1195304996537938</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41912</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>-4.4361314778791898E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41943</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>6.0335288836927743E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41973</v>
       </c>
@@ -7082,7 +7092,7 @@
         <v>8.3413731319774032E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42004</v>
       </c>
@@ -7099,7 +7109,7 @@
         <v>-1.53656032203251E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42035</v>
       </c>
@@ -7116,7 +7126,7 @@
         <v>-9.4712070874861665E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42063</v>
       </c>
@@ -7133,7 +7143,7 @@
         <v>0.1748371509832107</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>42094</v>
       </c>
@@ -7150,7 +7160,7 @@
         <v>-5.2842565597667653E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42124</v>
       </c>
@@ -7167,7 +7177,7 @@
         <v>2.592572234742296E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42155</v>
       </c>
@@ -7184,7 +7194,7 @@
         <v>3.4334035789548738E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42185</v>
       </c>
@@ -7201,7 +7211,7 @@
         <v>-6.2089387307589283E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42216</v>
       </c>
@@ -7218,7 +7228,7 @@
         <v>6.1753849835697323E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>42247</v>
       </c>
@@ -7235,7 +7245,7 @@
         <v>-0.18865192891200691</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>42277</v>
       </c>
@@ -7252,7 +7262,7 @@
         <v>-8.6366987573326059E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>42308</v>
       </c>
@@ -7269,7 +7279,7 @@
         <v>0.26788763361635448</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>42338</v>
       </c>
@@ -7286,7 +7296,7 @@
         <v>8.1540788842564549E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42369</v>
       </c>
@@ -7303,7 +7313,7 @@
         <v>-6.0560313277704718E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>42400</v>
       </c>
@@ -7320,7 +7330,7 @@
         <v>-0.15378322311715359</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42429</v>
       </c>
@@ -7337,7 +7347,7 @@
         <v>-1.6803434345759479E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>42460</v>
       </c>
@@ -7354,7 +7364,7 @@
         <v>0.214978870848795</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42490</v>
       </c>
@@ -7371,7 +7381,7 @@
         <v>8.0545706798209604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>42521</v>
       </c>
@@ -7388,7 +7398,7 @@
         <v>4.6545857705394322E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42551</v>
       </c>
@@ -7405,7 +7415,7 @@
         <v>-2.054832051726851E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>42582</v>
       </c>
@@ -7422,7 +7432,7 @@
         <v>0.11133582861274061</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>42613</v>
       </c>
@@ -7439,7 +7449,7 @@
         <v>1.0787308854651729E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>42643</v>
       </c>
@@ -7456,7 +7466,7 @@
         <v>-5.3467138274244652E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>42674</v>
       </c>
@@ -7473,7 +7483,7 @@
         <v>-5.6218987760502832E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>42704</v>
       </c>
@@ -7490,7 +7500,7 @@
         <v>0.1104957852123165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>42735</v>
       </c>
@@ -7507,7 +7517,7 @@
         <v>5.9606097907395128E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>42766</v>
       </c>
@@ -7524,7 +7534,7 @@
         <v>5.1353082227484581E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>42794</v>
       </c>
@@ -7541,7 +7551,7 @@
         <v>0.1191015851879134</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>42825</v>
       </c>
@@ -7558,7 +7568,7 @@
         <v>-2.183585764286677E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>42855</v>
       </c>
@@ -7575,7 +7585,7 @@
         <v>2.7706594270926029E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>42886</v>
       </c>
@@ -7595,7 +7605,7 @@
         <v>3.6989260585112982E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>42916</v>
       </c>
@@ -7615,7 +7625,7 @@
         <v>1.5147637385202421E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>42947</v>
       </c>
@@ -7635,7 +7645,7 @@
         <v>5.873075434749464E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>42978</v>
       </c>
@@ -7655,7 +7665,7 @@
         <v>2.0933130278277812E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43008</v>
       </c>
@@ -7675,7 +7685,7 @@
         <v>5.6893226417909608E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43039</v>
       </c>
@@ -7695,7 +7705,7 @@
         <v>6.83458127666694E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43069</v>
       </c>
@@ -7715,7 +7725,7 @@
         <v>8.8724005109657167E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43100</v>
       </c>
@@ -7735,7 +7745,7 @@
         <v>3.4547555147967701E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43131</v>
       </c>
@@ -7755,7 +7765,7 @@
         <v>0.182160673005058</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43159</v>
       </c>
@@ -7775,7 +7785,7 @@
         <v>-0.13532289664146319</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43190</v>
       </c>
@@ -7795,7 +7805,7 @@
         <v>-8.6873719382072667E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43220</v>
       </c>
@@ -7815,7 +7825,7 @@
         <v>-1.3780132401001179E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43251</v>
       </c>
@@ -7835,7 +7845,7 @@
         <v>6.4650872236673873E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43281</v>
       </c>
@@ -7855,7 +7865,7 @@
         <v>1.284734689588141E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43312</v>
       </c>
@@ -7875,7 +7885,7 @@
         <v>0.1072984937831809</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43343</v>
       </c>
@@ -7895,7 +7905,7 @@
         <v>9.0923643348807426E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43373</v>
       </c>
@@ -7915,7 +7925,7 @@
         <v>1.1971440330690751E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43404</v>
       </c>
@@ -7935,7 +7945,7 @@
         <v>-0.20778752298769279</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43434</v>
       </c>
@@ -7955,7 +7965,7 @@
         <v>4.2757783273662309E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43465</v>
       </c>
@@ -7975,7 +7985,7 @@
         <v>-0.26220545927803268</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43496</v>
       </c>
@@ -7995,7 +8005,7 @@
         <v>0.23893302076744999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43524</v>
       </c>
@@ -8015,7 +8025,7 @@
         <v>9.2827636595258278E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43555</v>
       </c>
@@ -8035,7 +8045,7 @@
         <v>4.8497004294273387E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43585</v>
       </c>
@@ -8055,7 +8065,7 @@
         <v>0.1180993255671368</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43616</v>
       </c>
@@ -8075,7 +8085,7 @@
         <v>-0.18892824894075161</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43646</v>
       </c>
@@ -8095,7 +8105,7 @@
         <v>0.21365887957883919</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43677</v>
       </c>
@@ -8115,7 +8125,7 @@
         <v>3.8044164506473077E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43708</v>
       </c>
@@ -8135,7 +8145,7 @@
         <v>-6.6183678580372884E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43738</v>
       </c>
@@ -8155,7 +8165,7 @@
         <v>5.2963285072276767E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43769</v>
       </c>
@@ -8175,7 +8185,7 @@
         <v>5.6994196517910822E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43799</v>
       </c>
@@ -8195,7 +8205,7 @@
         <v>0.1073256706563535</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43830</v>
       </c>
@@ -8215,7 +8225,7 @@
         <v>8.3807670427167524E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43861</v>
       </c>
@@ -8235,7 +8245,7 @@
         <v>-9.1413393912275209E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43890</v>
       </c>
@@ -8255,7 +8265,7 @@
         <v>-0.23035817153906951</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43921</v>
       </c>
@@ -8275,7 +8285,7 @@
         <v>-0.48125789853764211</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43951</v>
       </c>
@@ -8295,7 +8305,7 @@
         <v>0.3717036811461798</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43982</v>
       </c>
@@ -8315,7 +8325,7 @@
         <v>0.13376924052774039</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44012</v>
       </c>
@@ -8335,7 +8345,7 @@
         <v>3.235100773459032E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44043</v>
       </c>
@@ -8355,7 +8365,7 @@
         <v>0.17695885832994621</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44074</v>
       </c>
@@ -8375,7 +8385,7 @@
         <v>0.22045630702878591</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44104</v>
       </c>
@@ -8395,7 +8405,7 @@
         <v>-0.1225681300853905</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44135</v>
       </c>
@@ -8415,7 +8425,7 @@
         <v>-8.4777646793247841E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44165</v>
       </c>
@@ -8435,7 +8445,7 @@
         <v>0.3519612564256156</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44196</v>
       </c>
@@ -8455,7 +8465,7 @@
         <v>0.1114206450790856</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44227</v>
       </c>
@@ -8475,7 +8485,7 @@
         <v>-3.7079401143309883E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44255</v>
       </c>
@@ -8495,7 +8505,7 @@
         <v>7.7420332443102424E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44286</v>
       </c>
@@ -8515,7 +8525,7 @@
         <v>0.13330436813593871</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44316</v>
       </c>
@@ -8535,7 +8545,7 @@
         <v>0.161723448670162</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44347</v>
       </c>
@@ -8555,7 +8565,7 @@
         <v>1.3625516703323241E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44377</v>
       </c>
@@ -8575,7 +8585,7 @@
         <v>6.5896345364899078E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44408</v>
       </c>
@@ -8595,7 +8605,7 @@
         <v>6.9317226816573596E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44439</v>
       </c>
@@ -8615,7 +8625,7 @@
         <v>8.9732307229999808E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44469</v>
       </c>
@@ -8635,7 +8645,7 @@
         <v>-0.13940824601063029</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44500</v>
       </c>
@@ -8655,7 +8665,7 @@
         <v>0.21897766525702739</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44530</v>
       </c>
@@ -8675,7 +8685,7 @@
         <v>-2.7125591445061329E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44561</v>
       </c>
@@ -8695,7 +8705,7 @@
         <v>0.13180104841068241</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44592</v>
       </c>
@@ -8715,7 +8725,7 @@
         <v>-0.15888852015619681</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44620</v>
       </c>
@@ -8735,7 +8745,7 @@
         <v>-9.8504613724368029E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44651</v>
       </c>
@@ -8755,7 +8765,7 @@
         <v>0.1007241287447629</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44681</v>
       </c>
@@ -8775,7 +8785,7 @@
         <v>-0.25412541254125409</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44712</v>
       </c>
@@ -8795,7 +8805,7 @@
         <v>-2.1281078803202621E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44742</v>
       </c>
@@ -8815,7 +8825,7 @@
         <v>-0.24930032292787949</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44773</v>
       </c>
@@ -8835,7 +8845,7 @@
         <v>0.28620590765701182</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44804</v>
       </c>
@@ -8855,7 +8865,7 @@
         <v>-0.13333333333333339</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44834</v>
       </c>
@@ -9064,15 +9074,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="0c37b30d-845a-42e6-96a8-37a14b0deb23" xsi:nil="true"/>
@@ -9083,14 +9084,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EDC8BC-5A73-4C73-A635-58E3EC269548}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EDC8BC-5A73-4C73-A635-58E3EC269548}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="850dc5fa-d00b-4793-be08-fe7acc31f49f"/>
+    <ds:schemaRef ds:uri="0c37b30d-845a-42e6-96a8-37a14b0deb23"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B95E7C0-90AE-4AA4-86D9-EA657B2A03D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26F3FB52-CD23-407C-9485-920EF7575224}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0c37b30d-845a-42e6-96a8-37a14b0deb23"/>
+    <ds:schemaRef ds:uri="850dc5fa-d00b-4793-be08-fe7acc31f49f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26F3FB52-CD23-407C-9485-920EF7575224}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B95E7C0-90AE-4AA4-86D9-EA657B2A03D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>